--- a/data/income_statement/3digits/total/016_IS_TOTAL.xlsx
+++ b/data/income_statement/3digits/total/016_IS_TOTAL.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>016-Support activities to agriculture and post-harvest crop activities</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>016-Support activities to agriculture and post-harvest crop activities</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,14 +841,19 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
         <v>1581911.02269</v>
@@ -959,34 +865,39 @@
         <v>2732419.68255</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>3180812.35916</v>
+        <v>3180906.63053</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>3342076.65261</v>
+        <v>3344684.95822</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>4107834.33998</v>
+        <v>4113050.936290001</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>4753036.09666</v>
+        <v>4804784.859730001</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>4192238.18031</v>
+        <v>5267749.04802</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>7644306.50489</v>
+        <v>6446068.50489</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>9396524.223759999</v>
+        <v>9401992.781040002</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>13702147.80661</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>12676385.22438</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>13073931.511</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
         <v>983180.3408699998</v>
@@ -998,73 +909,83 @@
         <v>2053004.60942</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>2414818.22443</v>
+        <v>2414912.4958</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>2558433.64017</v>
+        <v>2561036.40536</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>3065439.64304</v>
+        <v>3069826.45087</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>3655578.46693</v>
+        <v>3706661.487</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>3749093.11711</v>
+        <v>4164672.78144</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>6644911.37961</v>
+        <v>5446673.37961</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>7399726.47436</v>
+        <v>7404944.890360001</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>10849503.33771</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>9823498.663439998</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>10890012.09</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
-        <v>578677.61086</v>
+        <v>578677.6108599999</v>
       </c>
       <c r="D7" s="48" t="n">
-        <v>703206.0985600001</v>
+        <v>703206.09856</v>
       </c>
       <c r="E7" s="48" t="n">
-        <v>653949.8162900001</v>
+        <v>653949.81629</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>737851.9556799999</v>
+        <v>737851.95568</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>750712.4969699999</v>
+        <v>750712.49697</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>1016235.80138</v>
+        <v>1016261.41691</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>1064845.57792</v>
+        <v>1064892.60633</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>410652.33517</v>
+        <v>1068518.18653</v>
       </c>
       <c r="K7" s="48" t="n">
-        <v>958371.33547</v>
+        <v>958371.3354699999</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>1932665.56101</v>
+        <v>1932732.58171</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>2750773.243540001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>2750798.16253</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>2063038.078</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
         <v>20053.07096</v>
@@ -1079,40 +1000,45 @@
         <v>28142.17905</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>32930.51547</v>
+        <v>32936.05589</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>26158.89556</v>
+        <v>26963.06851</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>32612.05181</v>
+        <v>33230.7664</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>32492.72803</v>
+        <v>34558.08005</v>
       </c>
       <c r="K8" s="48" t="n">
         <v>41023.78981</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>64132.18839</v>
+        <v>64315.30897</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>101871.22536</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>102088.39841</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>120881.343</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
-        <v>8076.77817</v>
+        <v>8076.778170000001</v>
       </c>
       <c r="D9" s="47" t="n">
         <v>6349.31728</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>7290.736220000001</v>
+        <v>7290.73622</v>
       </c>
       <c r="F9" s="47" t="n">
         <v>13693.13479</v>
@@ -1124,28 +1050,33 @@
         <v>40766.2478</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>17884.81447</v>
+        <v>17888.31447</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>12238.37334</v>
+        <v>24016.40954</v>
       </c>
       <c r="K9" s="47" t="n">
-        <v>1227541.63454</v>
+        <v>29303.63454</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>84110.69317000001</v>
+        <v>84110.69317</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>1216220.33373</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>88909.97387999999</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>126592.137</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
-        <v>4043.65485</v>
+        <v>4043.654849999999</v>
       </c>
       <c r="D10" s="48" t="n">
         <v>2224.46627</v>
@@ -1154,7 +1085,7 @@
         <v>3829.98958</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>6358.992609999999</v>
+        <v>6358.99261</v>
       </c>
       <c r="G10" s="48" t="n">
         <v>5420.36775</v>
@@ -1163,25 +1094,30 @@
         <v>31365.35864</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>10261.4918</v>
+        <v>10264.9918</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>7857.23757</v>
+        <v>8235.039139999999</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>1211184.25554</v>
+        <v>12946.25554</v>
       </c>
       <c r="L10" s="48" t="n">
         <v>52381.77941</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>1167498.83814</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>40179.67299</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>57739.266</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
         <v>248.36348</v>
@@ -1205,7 +1141,7 @@
         <v>5744.124769999999</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>1781.46965</v>
+        <v>9768.61606</v>
       </c>
       <c r="K11" s="48" t="n">
         <v>6250.273050000001</v>
@@ -1216,11 +1152,16 @@
       <c r="M11" s="48" t="n">
         <v>12138.88874</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="N11" s="48" t="n">
+        <v>16363.045</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
         <v>3784.75984</v>
@@ -1238,13 +1179,13 @@
         <v>5219.35029</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>4348.13289</v>
+        <v>4348.132890000001</v>
       </c>
       <c r="I12" s="48" t="n">
         <v>1879.1979</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>2599.66612</v>
+        <v>6012.75434</v>
       </c>
       <c r="K12" s="48" t="n">
         <v>10107.10595</v>
@@ -1253,52 +1194,62 @@
         <v>26889.55593</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>36582.60685</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>36591.41215</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>52489.826</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
         <v>1573834.24452</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>2220600.458649999</v>
+        <v>2220600.45865</v>
       </c>
       <c r="E13" s="47" t="n">
         <v>2725128.94633</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>3167119.22437</v>
+        <v>3167213.49574</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>3329915.87215</v>
+        <v>3332524.17776</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>4067068.09218</v>
+        <v>4072284.68849</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>4735151.28219</v>
+        <v>4786896.54526</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>4179999.80697</v>
+        <v>5243732.638479999</v>
       </c>
       <c r="K13" s="47" t="n">
         <v>6416764.87035</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>9312413.53059</v>
+        <v>9317882.087869998</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>12485927.47288</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>12587475.2505</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>12947339.374</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
         <v>1305681.63096</v>
@@ -1313,34 +1264,39 @@
         <v>2806322.99106</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>3013361.8548</v>
+        <v>3015787.18285</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>3615613.52401</v>
+        <v>3619567.97928</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>4227287.62022</v>
+        <v>4277156.18539</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>3823960.47233</v>
+        <v>4628274.55752</v>
       </c>
       <c r="K14" s="47" t="n">
-        <v>5687471.50313</v>
+        <v>5687471.503129999</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>8157911.6441</v>
+        <v>8163181.08066</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>10664787.47398</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>10761823.97704</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>11334249.392</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
-        <v>853591.0077900001</v>
+        <v>853591.0077899999</v>
       </c>
       <c r="D15" s="48" t="n">
         <v>1236708.91303</v>
@@ -1352,31 +1308,36 @@
         <v>1733988.9578</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>1843557.03258</v>
+        <v>1843835.17494</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>2025999.66</v>
+        <v>2026523.68869</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>2461638.25751</v>
+        <v>2482342.40799</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>2047358.04357</v>
+        <v>2715809.46755</v>
       </c>
       <c r="K15" s="48" t="n">
         <v>3327826.88534</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>5417535.46474</v>
+        <v>5421638.662949999</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>7106148.07344</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>7156588.60322</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>7327765.933</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
         <v>385844.44327</v>
@@ -1385,37 +1346,42 @@
         <v>625047.30563</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>810860.2093199999</v>
+        <v>810860.20932</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>988053.1211700001</v>
+        <v>988053.1211699999</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>1101147.61489</v>
+        <v>1103294.80058</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>1501759.57981</v>
+        <v>1505002.18171</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>1628268.87495</v>
+        <v>1654995.96625</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>1628051.21094</v>
+        <v>1732927.86429</v>
       </c>
       <c r="K16" s="48" t="n">
         <v>2218794.38006</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>2547852.1365</v>
+        <v>2548511.98422</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>3288592.91928</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>3329856.19489</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>3691921.66</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
         <v>60630.31835</v>
@@ -1427,34 +1393,39 @@
         <v>60624.7767</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>79525.61670999999</v>
+        <v>79525.61671</v>
       </c>
       <c r="G17" s="48" t="n">
         <v>62091.05338</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>79522.92475000001</v>
+        <v>79710.74943000001</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>130477.14498</v>
+        <v>130753.55854</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>140334.26122</v>
+        <v>169507.11767</v>
       </c>
       <c r="K17" s="48" t="n">
         <v>133401.5669</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>183370.33197</v>
+        <v>183876.7226</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>236452.3539</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>241785.05157</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>269077.904</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
         <v>5615.86155</v>
@@ -1475,13 +1446,13 @@
         <v>8331.35945</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>6903.34278</v>
+        <v>9064.25261</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>8216.9566</v>
+        <v>10030.10801</v>
       </c>
       <c r="K18" s="48" t="n">
-        <v>7448.67083</v>
+        <v>7448.670829999999</v>
       </c>
       <c r="L18" s="48" t="n">
         <v>9153.71089</v>
@@ -1489,11 +1460,16 @@
       <c r="M18" s="48" t="n">
         <v>33594.12736</v>
       </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="N18" s="48" t="n">
+        <v>45483.895</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
         <v>268152.61356</v>
@@ -1505,34 +1481,39 @@
         <v>305316.364</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>360796.23331</v>
+        <v>360890.50468</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>316554.01735</v>
+        <v>316736.99491</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>451454.56817</v>
+        <v>452716.70921</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>507863.66197</v>
+        <v>509740.3598699999</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>356039.33464</v>
+        <v>615458.0809600001</v>
       </c>
       <c r="K19" s="47" t="n">
         <v>729293.36722</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>1154501.88649</v>
+        <v>1154701.00721</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>1821139.9989</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>1825651.27346</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>1613089.982</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
         <v>115390.53669</v>
@@ -1544,34 +1525,39 @@
         <v>180814.09874</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>196598.94993</v>
+        <v>196831.06902</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>199464.68614</v>
+        <v>200053.87946</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>217375.66856</v>
+        <v>218452.32574</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>263455.93284</v>
+        <v>265107.36142</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>228596.01925</v>
+        <v>283571.22932</v>
       </c>
       <c r="K20" s="47" t="n">
         <v>341888.17016</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>520798.89017</v>
+        <v>521452.65509</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>675618.8982000001</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>679989.60595</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>732635.33</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>116.11343</v>
@@ -1580,7 +1566,7 @@
         <v>579.3632700000001</v>
       </c>
       <c r="E21" s="48" t="n">
-        <v>630.33029</v>
+        <v>630.3302900000001</v>
       </c>
       <c r="F21" s="48" t="n">
         <v>1035.45959</v>
@@ -1595,22 +1581,27 @@
         <v>3909.91448</v>
       </c>
       <c r="J21" s="48" t="n">
-        <v>3110.17326</v>
+        <v>3708.22592</v>
       </c>
       <c r="K21" s="48" t="n">
         <v>2668.48003</v>
       </c>
       <c r="L21" s="48" t="n">
-        <v>19310.74717999999</v>
+        <v>19310.74718</v>
       </c>
       <c r="M21" s="48" t="n">
         <v>24200.31236</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21" s="48" t="n">
+        <v>29936.063</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
         <v>25743.92925</v>
@@ -1619,22 +1610,22 @@
         <v>38195.69538</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>50030.67851</v>
+        <v>50030.67851000001</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>58060.63515999999</v>
+        <v>58060.63516</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>56743.8936</v>
+        <v>56816.3106</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>60748.59948</v>
+        <v>61021.15602</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>75174.77329000001</v>
+        <v>75330.72167</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>60657.44353</v>
+        <v>81581.25478</v>
       </c>
       <c r="K22" s="48" t="n">
         <v>99331.51538</v>
@@ -1643,13 +1634,18 @@
         <v>175271.94324</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>240526.1255</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>240579.44426</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>246066.144</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
         <v>89530.49401000001</v>
@@ -1661,34 +1657,39 @@
         <v>130153.08994</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>137502.85518</v>
+        <v>137734.97427</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>141685.66639</v>
+        <v>142202.44271</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>154661.52845</v>
+        <v>155465.62909</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>184371.24507</v>
+        <v>185866.72527</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>164828.40246</v>
+        <v>198281.74862</v>
       </c>
       <c r="K23" s="48" t="n">
         <v>239888.17475</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>326216.19975</v>
+        <v>326869.96467</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>410892.46034</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>415209.8493300001</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>456633.123</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
         <v>152762.07687</v>
@@ -1700,34 +1701,39 @@
         <v>124502.26526</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>164197.28338</v>
+        <v>164059.43566</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>117089.33121</v>
+        <v>116683.11545</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>234078.89961</v>
+        <v>234264.38347</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>244407.72913</v>
+        <v>244632.99845</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>127443.31539</v>
+        <v>331886.85164</v>
       </c>
       <c r="K24" s="47" t="n">
         <v>387405.19706</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>633702.9963199999</v>
+        <v>633248.3521200001</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>1145521.1007</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>1145661.66751</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>880454.652</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
         <v>67179.76110999999</v>
@@ -1742,16 +1748,16 @@
         <v>91184.36452</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>73692.23785999999</v>
+        <v>73777.19807</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>120967.71343</v>
+        <v>121254.03389</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>156976.37439</v>
+        <v>157196.94435</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>148749.78561</v>
+        <v>233507.8338</v>
       </c>
       <c r="K25" s="47" t="n">
         <v>194609.96943</v>
@@ -1760,22 +1766,27 @@
         <v>414693.66232</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>724808.89975</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>724839.8558400001</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>489292.34</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
         <v>588.41043</v>
       </c>
       <c r="D26" s="48" t="n">
-        <v>958.7530800000001</v>
+        <v>958.75308</v>
       </c>
       <c r="E26" s="48" t="n">
-        <v>814.39863</v>
+        <v>814.3986300000001</v>
       </c>
       <c r="F26" s="48" t="n">
         <v>2487.19278</v>
@@ -1790,7 +1801,7 @@
         <v>3419.54182</v>
       </c>
       <c r="J26" s="48" t="n">
-        <v>3262.2634</v>
+        <v>3266.38284</v>
       </c>
       <c r="K26" s="48" t="n">
         <v>68.65915</v>
@@ -1801,11 +1812,16 @@
       <c r="M26" s="48" t="n">
         <v>9202.803230000001</v>
       </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="N26" s="48" t="n">
+        <v>28519.245</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>0.69143</v>
@@ -1840,11 +1856,16 @@
       <c r="M27" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
         <v>2422.62127</v>
@@ -1865,10 +1886,10 @@
         <v>4356.62347</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>13657.12241</v>
+        <v>13666.03539</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>25829.5162</v>
+        <v>28846.17751</v>
       </c>
       <c r="K28" s="48" t="n">
         <v>34185.10218</v>
@@ -1877,13 +1898,18 @@
         <v>20131.74952</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>36102.25747</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>36107.72497</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>25905.434</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>11.59874</v>
@@ -1907,10 +1933,10 @@
         <v>250.06231</v>
       </c>
       <c r="J29" s="48" t="n">
-        <v>496.83239</v>
+        <v>517.20119</v>
       </c>
       <c r="K29" s="48" t="n">
-        <v>85.23956999999999</v>
+        <v>85.23957</v>
       </c>
       <c r="L29" s="48" t="n">
         <v>130.11584</v>
@@ -1918,11 +1944,16 @@
       <c r="M29" s="48" t="n">
         <v>115.84817</v>
       </c>
-    </row>
-    <row r="30" spans="1:13">
+      <c r="N29" s="48" t="n">
+        <v>60.887</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
         <v>978.24563</v>
@@ -1946,7 +1977,7 @@
         <v>2574.88846</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>569.12646</v>
+        <v>2330.6226</v>
       </c>
       <c r="K30" s="48" t="n">
         <v>1510.257</v>
@@ -1955,19 +1986,24 @@
         <v>4717.03819</v>
       </c>
       <c r="M30" s="48" t="n">
-        <v>3201.86086</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>3207.56525</v>
+      </c>
+      <c r="N30" s="48" t="n">
+        <v>3626.782</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
         <v>100.4268</v>
       </c>
       <c r="D31" s="48" t="n">
-        <v>92.72757999999999</v>
+        <v>92.72758</v>
       </c>
       <c r="E31" s="48" t="n">
         <v>141.26781</v>
@@ -1985,22 +2021,27 @@
         <v>113.48951</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>566.8522800000001</v>
+        <v>636.8216600000001</v>
       </c>
       <c r="K31" s="48" t="n">
         <v>683.05826</v>
       </c>
       <c r="L31" s="48" t="n">
-        <v>957.73385</v>
+        <v>957.7338500000001</v>
       </c>
       <c r="M31" s="48" t="n">
         <v>230.96717</v>
       </c>
-    </row>
-    <row r="32" spans="1:13">
+      <c r="N31" s="48" t="n">
+        <v>1132.997</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
         <v>56256.40874</v>
@@ -2018,13 +2059,13 @@
         <v>54679.14262000001</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>95067.24118</v>
+        <v>95129.38421</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>117267.0279</v>
+        <v>117383.06393</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>100598.72525</v>
+        <v>177444.47886</v>
       </c>
       <c r="K32" s="48" t="n">
         <v>140893.59792</v>
@@ -2035,11 +2076,16 @@
       <c r="M32" s="48" t="n">
         <v>638540.08112</v>
       </c>
-    </row>
-    <row r="33" spans="1:13">
+      <c r="N32" s="48" t="n">
+        <v>379396.399</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>0</v>
@@ -2074,11 +2120,16 @@
       <c r="M33" s="48" t="n">
         <v>7305.13224</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>7158.982</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>10.4455</v>
@@ -2113,11 +2164,16 @@
       <c r="M34" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
         <v>6810.91257</v>
@@ -2132,16 +2188,16 @@
         <v>10747.55089</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>9554.943039999998</v>
+        <v>9639.903249999999</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>15663.37297</v>
+        <v>15887.5504</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>19684.41908</v>
+        <v>19780.04003</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>17419.07466</v>
+        <v>20458.75417</v>
       </c>
       <c r="K35" s="48" t="n">
         <v>17169.09463</v>
@@ -2150,52 +2206,62 @@
         <v>27300.00498</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>30109.94949</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>30129.73369</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>43491.614</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
         <v>49463.88331</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>35073.62702</v>
+        <v>35073.62701999999</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>93185.73667999999</v>
+        <v>93185.73668</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>41475.6587</v>
+        <v>41519.43809</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>65409.64237</v>
+        <v>65410.07800999999</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>85801.19127</v>
+        <v>85823.08997</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>82103.22495</v>
+        <v>82265.83103</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>94436.97776000001</v>
+        <v>124617.63292</v>
       </c>
       <c r="K36" s="47" t="n">
         <v>110024.08149</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>338465.00737</v>
+        <v>338683.00613</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>662691.4835099999</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>663409.26946</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>339516.227</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
         <v>120.74498</v>
@@ -2210,16 +2276,16 @@
         <v>191.92412</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>513.0383200000001</v>
+        <v>513.47396</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>569.78326</v>
+        <v>570.19241</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>792.9868</v>
+        <v>793.5058099999999</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>258.51307</v>
+        <v>319.18689</v>
       </c>
       <c r="K37" s="48" t="n">
         <v>463.3034</v>
@@ -2230,11 +2296,16 @@
       <c r="M37" s="48" t="n">
         <v>1382.49067</v>
       </c>
-    </row>
-    <row r="38" spans="1:13">
+      <c r="N37" s="48" t="n">
+        <v>408.236</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
         <v>2234.78065</v>
@@ -2246,34 +2317,39 @@
         <v>2286.08446</v>
       </c>
       <c r="F38" s="48" t="n">
-        <v>517.7960399999999</v>
+        <v>517.7960400000001</v>
       </c>
       <c r="G38" s="48" t="n">
         <v>1170.00998</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>2808.732979999999</v>
+        <v>2808.73298</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>5964.642329999999</v>
+        <v>5964.64233</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>3626.537920000001</v>
+        <v>4955.81346</v>
       </c>
       <c r="K38" s="48" t="n">
         <v>4463.07735</v>
       </c>
       <c r="L38" s="48" t="n">
-        <v>9163.775420000002</v>
+        <v>9163.77542</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>10260.0409</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>10262.00383</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>14118.799</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>0</v>
@@ -2308,11 +2384,16 @@
       <c r="M39" s="48" t="n">
         <v>82.67327</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="48" t="n">
+        <v>98.429</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
         <v>44405.4961</v>
@@ -2321,37 +2402,42 @@
         <v>31469.93079</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>87003.64680999999</v>
+        <v>87003.64681000002</v>
       </c>
       <c r="F40" s="48" t="n">
         <v>37926.97091</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>58383.85546999999</v>
+        <v>58383.85547</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>80067.18988999999</v>
+        <v>80088.11959</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>68758.05046</v>
+        <v>68859.53693999999</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>86319.70342000001</v>
+        <v>112830.3747</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>98676.87939000002</v>
+        <v>98676.87939</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>319773.30006</v>
+        <v>319991.29882</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>630501.6664700002</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>630746.8373299999</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>309503.423</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>0</v>
@@ -2375,7 +2461,7 @@
         <v>11.15403</v>
       </c>
       <c r="J41" s="48" t="n">
-        <v>43.56188</v>
+        <v>1697.39886</v>
       </c>
       <c r="K41" s="48" t="n">
         <v>1236.55701</v>
@@ -2386,11 +2472,16 @@
       <c r="M41" s="48" t="n">
         <v>8227.23688</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>6536.109</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>0</v>
@@ -2425,11 +2516,16 @@
       <c r="M42" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
         <v>2702.86158</v>
@@ -2441,37 +2537,42 @@
         <v>3074.40849</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>2687.93421</v>
+        <v>2731.7136</v>
       </c>
       <c r="G43" s="48" t="n">
         <v>2517.97252</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>2266.15484</v>
+        <v>2266.71469</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>6574.227540000001</v>
+        <v>6634.82813</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>4188.66147</v>
+        <v>4814.859010000001</v>
       </c>
       <c r="K43" s="48" t="n">
         <v>5155.01525</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>5279.885010000001</v>
+        <v>5279.88501</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>12237.37532</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>12708.02748</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>8851.231</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>82735.56998999999</v>
+        <v>82735.56999</v>
       </c>
       <c r="D44" s="47" t="n">
         <v>40685.94085</v>
@@ -2480,34 +2581,39 @@
         <v>73843.63387999999</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>83231.00495</v>
+        <v>83231.00494999999</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>77407.08101999998</v>
+        <v>77438.86568</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>180236.06231</v>
+        <v>180242.31371</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>204422.31768</v>
+        <v>205501.78231</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>124562.33433</v>
+        <v>222646.15369</v>
       </c>
       <c r="K44" s="47" t="n">
         <v>266853.86553</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>313187.40794</v>
+        <v>313187.41794</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>655670.41737</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>658056.7950299999</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>387097.263</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
         <v>82522.05160999999</v>
@@ -2516,37 +2622,42 @@
         <v>33615.48875</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>64768.64613</v>
+        <v>64768.64612999999</v>
       </c>
       <c r="F45" s="48" t="n">
         <v>73659.62467</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>69632.8067</v>
+        <v>69664.59136000002</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>170812.47463</v>
+        <v>170818.72603</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>177065.74451</v>
+        <v>178145.20914</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>122433.61876</v>
+        <v>220290.89278</v>
       </c>
       <c r="K45" s="48" t="n">
         <v>265001.127</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>310057.37101</v>
+        <v>310057.38101</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>648522.21506</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>650908.5927200001</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>376371.732</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
         <v>213.51838</v>
@@ -2558,7 +2669,7 @@
         <v>9074.98775</v>
       </c>
       <c r="F46" s="48" t="n">
-        <v>9571.380279999999</v>
+        <v>9571.380280000001</v>
       </c>
       <c r="G46" s="48" t="n">
         <v>7774.27432</v>
@@ -2570,7 +2681,7 @@
         <v>27356.57317</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>2128.71557</v>
+        <v>2355.26091</v>
       </c>
       <c r="K46" s="48" t="n">
         <v>1852.73853</v>
@@ -2581,11 +2692,16 @@
       <c r="M46" s="48" t="n">
         <v>7148.202310000001</v>
       </c>
-    </row>
-    <row r="47" spans="1:13">
+      <c r="N46" s="48" t="n">
+        <v>10725.531</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
         <v>87742.38467999999</v>
@@ -2594,37 +2710,42 @@
         <v>147944.48642</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>51931.16554</v>
+        <v>51931.16554000002</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>130674.98425</v>
+        <v>130493.35714</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>47964.84567999999</v>
+        <v>47611.36983</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>89009.35945999999</v>
+        <v>89453.01368</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>114858.56089</v>
+        <v>114062.32946</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>57193.78891</v>
+        <v>218130.89883</v>
       </c>
       <c r="K47" s="47" t="n">
         <v>205137.21947</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>396744.24333</v>
+        <v>396071.59037</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>551968.09957</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>549035.45886</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>643133.502</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
         <v>19078.31693</v>
@@ -2639,31 +2760,36 @@
         <v>27442.88059</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>26266.63594</v>
+        <v>26280.53133</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>26195.22808</v>
+        <v>26199.41103</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>34776.2822</v>
+        <v>35006.47999</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>49006.67372</v>
+        <v>51069.7775</v>
       </c>
       <c r="K48" s="47" t="n">
         <v>16464.84457</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>74865.33068000001</v>
+        <v>74865.74457000001</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>40502.81484</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>41235.42207</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>81588.702</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
         <v>56.49378</v>
@@ -2681,16 +2807,16 @@
         <v>390.49559</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>75.35908000000001</v>
+        <v>75.35907999999999</v>
       </c>
       <c r="I49" s="48" t="n">
         <v>151.9317</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>73.79622999999999</v>
+        <v>128.50951</v>
       </c>
       <c r="K49" s="48" t="n">
-        <v>86.72355</v>
+        <v>86.72355000000002</v>
       </c>
       <c r="L49" s="48" t="n">
         <v>5119.062730000001</v>
@@ -2698,11 +2824,16 @@
       <c r="M49" s="48" t="n">
         <v>373.59704</v>
       </c>
-    </row>
-    <row r="50" spans="1:13">
+      <c r="N49" s="48" t="n">
+        <v>153.342</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
         <v>19021.82315</v>
@@ -2717,31 +2848,36 @@
         <v>27219.00938</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>25876.14035</v>
+        <v>25890.03574</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>26119.869</v>
+        <v>26124.05195</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>34624.3505</v>
+        <v>34854.54829</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>48932.87748999999</v>
+        <v>50941.26799</v>
       </c>
       <c r="K50" s="48" t="n">
         <v>16378.12102</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>69746.26795000001</v>
+        <v>69746.68184</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>40129.2178</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>40861.82503</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>81435.36</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
         <v>11429.54392</v>
@@ -2756,37 +2892,42 @@
         <v>19646.89151</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>20355.14777</v>
+        <v>20362.69135</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>38426.44145000001</v>
+        <v>38470.69732</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>19002.43427</v>
+        <v>19026.37661</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>21453.30033</v>
+        <v>25232.24579</v>
       </c>
       <c r="K51" s="47" t="n">
         <v>26158.13745</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>55622.5606</v>
+        <v>55622.56760000001</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>47821.44186</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>49118.04268999999</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>58372.558</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
-        <v>3321.73231</v>
+        <v>3321.732309999999</v>
       </c>
       <c r="D52" s="48" t="n">
-        <v>4700.993530000001</v>
+        <v>4700.99353</v>
       </c>
       <c r="E52" s="48" t="n">
         <v>3855.86022</v>
@@ -2795,7 +2936,7 @@
         <v>5755.52282</v>
       </c>
       <c r="G52" s="48" t="n">
-        <v>5796.685860000001</v>
+        <v>5796.68586</v>
       </c>
       <c r="H52" s="48" t="n">
         <v>4170.72901</v>
@@ -2804,22 +2945,27 @@
         <v>3815.12999</v>
       </c>
       <c r="J52" s="48" t="n">
-        <v>2510.34318</v>
+        <v>3393.52027</v>
       </c>
       <c r="K52" s="48" t="n">
-        <v>3105.33006</v>
+        <v>3105.330060000001</v>
       </c>
       <c r="L52" s="48" t="n">
         <v>3520.04234</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>4895.09665</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>4907.947720000001</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>8950.272000000001</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
         <v>484.89167</v>
@@ -2837,13 +2983,13 @@
         <v>3036.26933</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>2112.08092</v>
+        <v>2114.7302</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>598.44909</v>
+        <v>598.4490900000001</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>842.2185899999999</v>
+        <v>1342.78686</v>
       </c>
       <c r="K53" s="48" t="n">
         <v>1164.11654</v>
@@ -2852,13 +2998,18 @@
         <v>2101.20354</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>2261.7619</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>2361.04699</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>512.809</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
         <v>7622.91994</v>
@@ -2873,34 +3024,39 @@
         <v>12324.83914</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>11522.19258</v>
+        <v>11529.73616</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>32143.63152</v>
+        <v>32185.23811</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>14588.85519</v>
+        <v>14612.79753</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>18100.73856</v>
+        <v>20495.93866</v>
       </c>
       <c r="K54" s="48" t="n">
         <v>21888.69085</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>50001.31472</v>
+        <v>50001.32172</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>40664.58330999999</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>41849.04798</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>48909.477</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>95391.15768999998</v>
+        <v>95391.15769000001</v>
       </c>
       <c r="D55" s="47" t="n">
         <v>153478.77289</v>
@@ -2909,40 +3065,45 @@
         <v>33689.13747000001</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>138470.97333</v>
+        <v>138289.34622</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>53876.33385</v>
+        <v>53529.20981</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>76778.14609000001</v>
+        <v>77181.72739</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>130632.40882</v>
+        <v>130042.43284</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>84747.1623</v>
+        <v>243968.43054</v>
       </c>
       <c r="K55" s="47" t="n">
         <v>195443.92659</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>415987.01341</v>
+        <v>415314.76734</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>544649.4725499999</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>541152.83824</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>666349.6459999999</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
-        <v>21165.63028999999</v>
+        <v>21165.63029</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>34210.2992</v>
+        <v>34210.29919999999</v>
       </c>
       <c r="E56" s="47" t="n">
         <v>22705.4585</v>
@@ -2954,31 +3115,36 @@
         <v>17459.8203</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>19258.57791</v>
+        <v>19291.81679</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>28272.57266</v>
+        <v>28462.28378</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>14644.40708</v>
+        <v>47029.32112</v>
       </c>
       <c r="K56" s="47" t="n">
         <v>34159.35695</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>83386.36869999999</v>
+        <v>83398.52578</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>133280.03759</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>133452.53941</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>133021.545</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>74225.52739999999</v>
+        <v>74225.52740000001</v>
       </c>
       <c r="D57" s="47" t="n">
         <v>119268.47369</v>
@@ -2987,31 +3153,34 @@
         <v>10983.67897</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>109865.00787</v>
+        <v>109683.38076</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>36416.51355</v>
+        <v>36069.38951000001</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>57519.56817999999</v>
+        <v>57889.9106</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>102359.83616</v>
+        <v>101580.14906</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>70102.75521999999</v>
+        <v>196939.10942</v>
       </c>
       <c r="K57" s="47" t="n">
         <v>161284.56964</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>332600.64471</v>
+        <v>331916.24156</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>411369.43496</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>407700.29883</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>533328.101</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,11 +3194,14 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
         <v>1219</v>
@@ -3041,31 +3213,34 @@
         <v>1760</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>1630</v>
+        <v>1632</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>1363</v>
+        <v>1368</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>1293</v>
+        <v>1305</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>1311</v>
+        <v>1329</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>1351</v>
+        <v>1396</v>
       </c>
       <c r="K59" s="35" t="n">
         <v>1354</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>1375</v>
+        <v>1396</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>1440</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>1507</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>1716</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>